--- a/ИТ/Лабораторные работы/Test.xlsx
+++ b/ИТ/Лабораторные работы/Test.xlsx
@@ -2,21 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="107" windowWidth="14807" windowHeight="8013" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12420"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Регистрация" sheetId="1" r:id="rId1"/>
+    <sheet name="Тестирование" sheetId="2" r:id="rId2"/>
+    <sheet name="Обработка результатов" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>№</t>
   </si>
@@ -110,9 +110,6 @@
     <t>.Sort</t>
   </si>
   <si>
-    <t>Какой инструмент позволяет работать с массивами, как с данными и баз данных(SQL)?</t>
-  </si>
-  <si>
     <t>LINQ</t>
   </si>
   <si>
@@ -132,13 +129,45 @@
   </si>
   <si>
     <t>Общее количество баллов</t>
+  </si>
+  <si>
+    <t>Введите ваше имя</t>
+  </si>
+  <si>
+    <t>Группа</t>
+  </si>
+  <si>
+    <t>Оценка</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="Montserrat"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Тест по теме</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Montserrat"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> "Основы программирования на C#"</t>
+    </r>
+  </si>
+  <si>
+    <t>Какой инструмент позволяет работать с массивами, как с данными из баз данных(SQL)?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +209,25 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="7" tint="0.39997558519241921"/>
+      <name val="Montserrat"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Montserrat"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="7" tint="0.39997558519241921"/>
       <name val="Montserrat"/>
       <charset val="204"/>
@@ -232,31 +280,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -269,6 +302,29 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -290,6 +346,299 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!Куб3_Щелчок" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Куб 3">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="2228850"/>
+          <a:ext cx="3105150" cy="1228725"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 30329"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Montserrat" pitchFamily="2" charset="-52"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Перейти к тестированию</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1400" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Montserrat" pitchFamily="2" charset="-52"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!Очистка" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="32-конечная звезда 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3886200" y="2371725"/>
+          <a:ext cx="6429375" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="star32">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 36209"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1600" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Montserrat" pitchFamily="2" charset="-52"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Очистить введенные данные</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1600" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Montserrat" pitchFamily="2" charset="-52"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1314451</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Прямоугольник с двумя усеченными противолежащими углами 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1924051" y="5495926"/>
+          <a:ext cx="2905124" cy="1133474"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2DiagRect">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 13445"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Montserrat" pitchFamily="2" charset="-52"/>
+            </a:rPr>
+            <a:t>Просмотр</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Montserrat" pitchFamily="2" charset="-52"/>
+            </a:rPr>
+            <a:t> результатов тестирования</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Montserrat" pitchFamily="2" charset="-52"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -579,264 +928,294 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr codeName="Лист1"/>
+  <dimension ref="B2:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="21.75" x14ac:dyDescent="0.4">
+      <c r="B2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="10">
+        <f>IF('Обработка результатов'!B9&gt;4,5,IF('Обработка результатов'!B9&gt;3,4,IF('Обработка результатов'!B9&gt;2,3,2)))</f>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист2"/>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:D19"/>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.41015625" customWidth="1"/>
-    <col min="3" max="3" width="35.29296875" customWidth="1"/>
-    <col min="4" max="4" width="23.1171875" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" ht="24.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="16.350000000000001" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A3" s="3" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" ht="24.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="4">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="17"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="17"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="4">
+      <c r="D7" s="17"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
         <v>2</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="17"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6" t="s">
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6" t="s">
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="4">
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
         <v>3</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="42.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:4" ht="14.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6" t="s">
+      <c r="D14" s="17"/>
+    </row>
+    <row r="15" spans="1:4" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="4">
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
         <v>4</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6" t="s">
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6" t="s">
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6" t="s">
+      <c r="D18" s="17"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="4">
+      <c r="D19" s="17"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16">
         <v>5</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="17"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="16"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D21" s="17"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="16"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="17"/>
+    </row>
+    <row r="23" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="16"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="D23" s="17"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="D8:D11"/>
     <mergeCell ref="D20:D23"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="B20:B23"/>
@@ -846,6 +1225,13 @@
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="D16:D19"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="D8:D11"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D7">
@@ -866,91 +1252,93 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист3"/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1171875" customWidth="1"/>
-    <col min="2" max="2" width="12.3515625" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="18"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8">
+        <f>IF(Тестирование!D4=Тестирование!C6,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8">
+        <f>IF(Тестирование!D8=Тестирование!C8,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8">
+        <f>IF(Тестирование!D12=Тестирование!C13,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8">
+        <f>IF(Тестирование!D16=Тестирование!C17,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8">
+        <f>IF(Тестирование!D20=Тестирование!C20,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="44.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="10"/>
-    </row>
-    <row r="2" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-    </row>
-    <row r="3" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="12">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13">
-        <f>IF(Лист2!D4=Лист2!C6,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="12">
-        <v>2</v>
-      </c>
-      <c r="B5" s="13">
-        <f>IF(Лист2!D8=Лист2!C8,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="12">
-        <v>3</v>
-      </c>
-      <c r="B6" s="13">
-        <f>IF(Лист2!D12=Лист2!C13,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="12">
-        <v>4</v>
-      </c>
-      <c r="B7" s="13">
-        <f>IF(Лист2!D16=Лист2!C17,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="12">
-        <v>5</v>
-      </c>
-      <c r="B8" s="13">
-        <f>IF(Лист2!D20=Лист2!C20,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="13">
+      <c r="B9" s="8">
         <f>SUM(B4:B8)</f>
         <v>0</v>
       </c>
@@ -960,5 +1348,6 @@
     <mergeCell ref="A1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>